--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -38,7 +38,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -63,6 +63,12 @@
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCCC"/>
+        <bgColor rgb="00CCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -82,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -91,6 +97,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +900,7 @@
       <c r="AG3" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="AH3" s="3" t="n">
+      <c r="AH3" s="4" t="n">
         <v>10</v>
       </c>
       <c r="AI3" s="3" t="n">
@@ -1252,7 +1261,7 @@
       <c r="H7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="3" t="n">
@@ -1285,7 +1294,7 @@
       <c r="S7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="4" t="n">
         <v>8</v>
       </c>
       <c r="U7" s="3" t="n">
@@ -1324,7 +1333,7 @@
       <c r="AF7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AG7" s="3" t="n">
+      <c r="AG7" s="4" t="n">
         <v>10</v>
       </c>
       <c r="AH7" s="3" t="n">
@@ -1357,7 +1366,7 @@
       <c r="L8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="3" t="n">
@@ -1375,7 +1384,7 @@
       <c r="R8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="S8" s="3" t="n">
+      <c r="S8" s="4" t="n">
         <v>8</v>
       </c>
       <c r="T8" s="3" t="n">
@@ -1506,7 +1515,7 @@
       <c r="I10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K10" s="3" t="n">
@@ -1518,7 +1527,7 @@
       <c r="M10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O10" s="3" t="n">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -38,7 +38,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -63,12 +63,6 @@
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
-        <bgColor rgb="00CCCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -88,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -97,9 +91,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,106 +687,106 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>9</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="T2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="AA2" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AC2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>12</v>
-      </c>
       <c r="AI2" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -808,37 +799,37 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>8</v>
@@ -847,64 +838,64 @@
         <v>9</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="U3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="AB3" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="3" t="n">
         <v>10</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -920,37 +911,37 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3" t="n">
         <v>8</v>
@@ -959,61 +950,61 @@
         <v>9</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="V4" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="AC4" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1032,37 +1023,37 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>8</v>
@@ -1071,58 +1062,58 @@
         <v>9</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="W5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="X5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="AD5" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1144,37 +1135,37 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>8</v>
@@ -1183,55 +1174,55 @@
         <v>9</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="X6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="AE6" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1240,107 +1231,91 @@
           <t>Slide</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="O7" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>7</v>
-      </c>
       <c r="X7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="Y7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="AF7" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1357,78 +1332,38 @@
       <c r="G8" s="3" t="inlineStr"/>
       <c r="H8" s="3" t="inlineStr"/>
       <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="J8" s="3" t="inlineStr"/>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr"/>
+      <c r="P8" s="3" t="inlineStr"/>
+      <c r="Q8" s="3" t="inlineStr"/>
       <c r="R8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="n">
         <v>8</v>
       </c>
       <c r="T8" s="3" t="n">
         <v>9</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="V8" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="W8" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="inlineStr"/>
+      <c r="X8" s="3" t="inlineStr"/>
+      <c r="Y8" s="3" t="inlineStr"/>
+      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="AA8" s="3" t="inlineStr"/>
+      <c r="AB8" s="3" t="inlineStr"/>
+      <c r="AC8" s="3" t="inlineStr"/>
+      <c r="AD8" s="3" t="inlineStr"/>
+      <c r="AE8" s="3" t="inlineStr"/>
+      <c r="AF8" s="3" t="inlineStr"/>
+      <c r="AG8" s="3" t="inlineStr"/>
       <c r="AH8" s="3" t="inlineStr"/>
       <c r="AI8" s="3" t="inlineStr"/>
     </row>
@@ -1450,24 +1385,12 @@
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr"/>
       <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>5</v>
-      </c>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr"/>
       <c r="T9" s="3" t="inlineStr"/>
       <c r="U9" s="3" t="inlineStr"/>
       <c r="V9" s="3" t="inlineStr"/>
@@ -1492,106 +1415,106 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="R10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="V10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="W10" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="X10" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="Y10" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AA10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF10" s="3" t="n">
-        <v>12</v>
-      </c>
       <c r="AG10" s="3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AH10" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -1600,108 +1523,80 @@
           <t>See Manager</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>4</v>
-      </c>
+      <c r="B11" s="3" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr"/>
       <c r="N11" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="Z11" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AB11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG11" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" s="3" t="n">
-        <v>7</v>
-      </c>
+      <c r="AH11" s="3" t="inlineStr"/>
+      <c r="AI11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
